--- a/CLaRO CNL/TemplateConstruction.xlsx
+++ b/CLaRO CNL/TemplateConstruction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="14260" tabRatio="767" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="14280" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="PatternsSorted" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="441">
   <si>
     <t>What is EC1 PC1 EC2</t>
   </si>
@@ -1317,29 +1317,6 @@
     <t>87a</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">What EC1 PC1 I PC1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>EC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
     <t>60a</t>
   </si>
   <si>
@@ -1350,13 +1327,31 @@
   </si>
   <si>
     <t>What is [EC1]</t>
+  </si>
+  <si>
+    <t>What EC1 PC1 not EC2</t>
+  </si>
+  <si>
+    <t>Which EC1 does not PC1 EC2</t>
+  </si>
+  <si>
+    <t>Which types are disjoint from EC1</t>
+  </si>
+  <si>
+    <t>Which types are disjoint from [EC1]</t>
+  </si>
+  <si>
+    <t>Which [EC1] does not [PC1] [EC2]</t>
+  </si>
+  <si>
+    <t>What [EC1] [PC1] not [EC2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1372,11 +1367,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -1406,7 +1396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,6 +1412,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,191 +1452,195 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="182">
+  <cellStyleXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1648,17 +1654,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="182">
+  <cellStyles count="186">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1835,11 +1845,15 @@
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2171,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3643,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="B37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -5504,10 +5518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A112" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6216,10 +6230,10 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6565,10 +6579,34 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="10">
+      <c r="A132" s="12">
         <v>90</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="12">
+        <v>91</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="12">
+        <v>92</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="10">
+        <v>93</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6588,9 +6626,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A114" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -7087,9 +7125,7 @@
       <c r="B61" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>431</v>
-      </c>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
@@ -7221,10 +7257,10 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7300,368 +7336,392 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="10">
-        <v>90</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>435</v>
+      <c r="A88" s="14">
+        <v>91</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89">
-        <v>66</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>402</v>
+      <c r="A89" s="10">
+        <v>93</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
+        <v>64</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
         <v>67</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B99" s="8" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>70</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
         <v>71</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B101" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>288</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B102" s="8" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>72</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
         <v>76</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>291</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>293</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B109" s="8" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>73</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
+        <v>73</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
         <v>74</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>290</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>81</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
+        <v>81</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
         <v>82</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="8" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>298</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>299</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
+    <row r="117" spans="1:2">
+      <c r="A117">
         <v>83</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B117" s="8" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>294</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>297</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B119" s="8" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>78</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>296</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>333</v>
+      <c r="A124" s="14">
+        <v>90</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126">
-        <v>88</v>
+      <c r="A126" t="s">
+        <v>296</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128">
-        <v>89</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>421</v>
+      <c r="A128" s="14">
+        <v>92</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>300</v>
+      <c r="A130">
+        <v>87</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>335</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>430</v>
+      <c r="A131">
+        <v>89</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>300</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>430</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
         <v>86</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B135" s="8" t="s">
         <v>334</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B130">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:B135">
+    <sortCondition ref="B125"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
